--- a/analysis/data/raw_data/Kiwulan_Ornament_Upper.xlsx
+++ b/analysis/data/raw_data/Kiwulan_Ornament_Upper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EmilyWang/Desktop/School document/LW-Paper/kwl-ornaments/analysis/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D056A55-06B6-9C4B-BB99-D6D7EFF9D905}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361EA80A-7BF9-6349-B16B-28CB86C0315E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="600" windowWidth="20460" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11026" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11034" uniqueCount="968">
   <si>
     <t>Site</t>
   </si>
@@ -2929,6 +2929,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>8.5+</t>
   </si>
 </sst>
 </file>
@@ -3320,8 +3326,8 @@
   </sheetPr>
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A667" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="A686" sqref="A686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -49212,17 +49218,23 @@
         <v>311</v>
       </c>
       <c r="K682" s="1">
-        <v>40</v>
+        <v>12.6</v>
       </c>
       <c r="L682" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M682" s="1">
-        <v>6</v>
-      </c>
-      <c r="N682" s="6"/>
-      <c r="O682" s="6"/>
-      <c r="P682" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="N682" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O682" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="P682" s="1">
+        <v>1.2</v>
+      </c>
       <c r="Q682" s="1" t="s">
         <v>28</v>
       </c>
@@ -49273,17 +49285,23 @@
         <v>311</v>
       </c>
       <c r="K683" s="1">
-        <v>40</v>
+        <v>7.8</v>
       </c>
       <c r="L683" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M683" s="1">
-        <v>5</v>
-      </c>
-      <c r="N683" s="6"/>
-      <c r="O683" s="6"/>
-      <c r="P683" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="N683" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="O683" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P683" s="1">
+        <v>1.5</v>
+      </c>
       <c r="Q683" s="1" t="s">
         <v>28</v>
       </c>
@@ -49333,18 +49351,20 @@
       <c r="J684" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K684" s="1">
-        <v>40</v>
+      <c r="K684" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="L684" s="1">
-        <v>7</v>
-      </c>
-      <c r="M684" s="1">
-        <v>6</v>
-      </c>
-      <c r="N684" s="6"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M684" s="1"/>
+      <c r="N684" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="O684" s="6"/>
-      <c r="P684" s="1"/>
+      <c r="P684" s="1" t="s">
+        <v>966</v>
+      </c>
       <c r="Q684" s="1" t="s">
         <v>73</v>
       </c>
@@ -49394,18 +49414,22 @@
       <c r="J685" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K685" s="1">
-        <v>40</v>
-      </c>
-      <c r="L685" s="1">
-        <v>8</v>
-      </c>
-      <c r="M685" s="1">
-        <v>1</v>
-      </c>
-      <c r="N685" s="6"/>
+      <c r="K685" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L685" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M685" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="N685" s="6" t="s">
+        <v>247</v>
+      </c>
       <c r="O685" s="6"/>
-      <c r="P685" s="1"/>
+      <c r="P685" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="Q685" s="1" t="s">
         <v>73</v>
       </c>
